--- a/DesignDocuments/(5Team_Design_001) Interface description document.xlsx
+++ b/DesignDocuments/(5Team_Design_001) Interface description document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
+    <workbookView xWindow="9840" yWindow="30" windowWidth="21555" windowHeight="10305" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="Parkinglot→ParkServer" sheetId="4" r:id="rId1"/>
@@ -152,20 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-1~10
-empty or occupied
-on or off
-up or down
-up or down
-red or green
-red or green
-yes or no
-yes or no
--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"messagetype" : "Authentication_Request",
 "id" : "aaabbbccc",
 "pwd" : "12341234"</t>
@@ -565,6 +551,20 @@
 "entrygate_arrive" : "0",
 "exitgate_arrive" : "0",
 "timestamp" : 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1~10
+empty or occupied
+on or off
+down or up
+down or up
+red or green
+red or green
+no or yes
+no or yes
+-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +987,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1026,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
@@ -1043,16 +1043,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1063,13 +1063,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1080,13 +1080,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1097,13 +1097,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1114,13 +1114,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1131,13 +1131,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1148,13 +1148,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,13 +1165,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1182,13 +1182,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,13 +1199,13 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,13 +1216,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1233,13 +1233,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1295,13 +1295,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,13 +1346,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,13 +1363,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1380,13 +1380,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1459,13 +1459,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1473,16 +1473,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1493,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1555,13 +1555,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -1569,16 +1569,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1586,19 +1586,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1653,13 +1653,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1667,16 +1667,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="99" x14ac:dyDescent="0.3">
@@ -1684,16 +1684,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1701,16 +1701,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -1718,16 +1718,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1783,13 +1783,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
@@ -1797,16 +1797,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66" x14ac:dyDescent="0.3">
@@ -1814,19 +1814,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -1834,16 +1834,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
